--- a/Variable.xlsx
+++ b/Variable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jess-\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Dropbox\Skole\8. semester\Projekt\Oil-Price-Forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11A5999B-3D55-4DB7-A493-394B954B7A6C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829EC588-F1C3-4B87-A966-10CFD77F97E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{531FD6B3-410A-4963-81A7-88A22201188A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{531FD6B3-410A-4963-81A7-88A22201188A}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>US crude inv</t>
+  </si>
+  <si>
+    <t>Kilian</t>
   </si>
 </sst>
 </file>
@@ -92,9 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,7 +117,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -409,23 +413,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619BEDCC-FC3C-4C4F-8566-63C0BD59BBDB}">
-  <dimension ref="A1:H547"/>
+  <dimension ref="A1:I553"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +454,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>26665</v>
       </c>
@@ -476,8 +483,11 @@
       <c r="H2">
         <v>237</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="2">
+        <v>21.315314000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>26696</v>
       </c>
@@ -502,8 +512,11 @@
       <c r="H3">
         <v>235</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="2">
+        <v>30.054917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>26724</v>
       </c>
@@ -528,8 +541,11 @@
       <c r="H4">
         <v>244</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="2">
+        <v>39.166181000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>26755</v>
       </c>
@@ -554,8 +570,11 @@
       <c r="H5">
         <v>249</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="2">
+        <v>43.561557999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>26785</v>
       </c>
@@ -580,8 +599,11 @@
       <c r="H6">
         <v>258</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="2">
+        <v>50.833117999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>26816</v>
       </c>
@@ -606,8 +628,11 @@
       <c r="H7">
         <v>249</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="2">
+        <v>58.286743000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>26846</v>
       </c>
@@ -632,8 +657,11 @@
       <c r="H8">
         <v>244</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="2">
+        <v>59.748218000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>26877</v>
       </c>
@@ -658,8 +686,11 @@
       <c r="H9">
         <v>248</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="2">
+        <v>70.262625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>26908</v>
       </c>
@@ -684,8 +715,11 @@
       <c r="H10">
         <v>241</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="2">
+        <v>81.686368999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>26938</v>
       </c>
@@ -710,8 +744,11 @@
       <c r="H11">
         <v>246</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="2">
+        <v>107.60498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>26969</v>
       </c>
@@ -736,8 +773,11 @@
       <c r="H12">
         <v>250</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="2">
+        <v>104.63039000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>26999</v>
       </c>
@@ -762,8 +802,11 @@
       <c r="H13">
         <v>242</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="2">
+        <v>114.63139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>27030</v>
       </c>
@@ -788,8 +831,11 @@
       <c r="H14">
         <v>233</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="2">
+        <v>106.15801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>27061</v>
       </c>
@@ -814,8 +860,11 @@
       <c r="H15">
         <v>241</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="2">
+        <v>89.212959999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>27089</v>
       </c>
@@ -840,8 +889,11 @@
       <c r="H16">
         <v>245</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="2">
+        <v>98.794070000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>27120</v>
       </c>
@@ -866,8 +918,11 @@
       <c r="H17">
         <v>256</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="2">
+        <v>86.814474000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>27150</v>
       </c>
@@ -892,8 +947,11 @@
       <c r="H18">
         <v>269</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="2">
+        <v>104.56697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>27181</v>
       </c>
@@ -918,8 +976,11 @@
       <c r="H19">
         <v>269</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="2">
+        <v>82.893208000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>27211</v>
       </c>
@@ -944,8 +1005,11 @@
       <c r="H20">
         <v>269</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="2">
+        <v>62.586171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>27242</v>
       </c>
@@ -970,8 +1034,11 @@
       <c r="H21">
         <v>265</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="2">
+        <v>59.216197999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>27273</v>
       </c>
@@ -996,8 +1063,11 @@
       <c r="H22">
         <v>267</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="2">
+        <v>60.960115999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>27303</v>
       </c>
@@ -1022,8 +1092,11 @@
       <c r="H23">
         <v>269</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="2">
+        <v>62.109931000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>27334</v>
       </c>
@@ -1048,8 +1121,11 @@
       <c r="H24">
         <v>271</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="2">
+        <v>59.520190999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>27364</v>
       </c>
@@ -1074,8 +1150,11 @@
       <c r="H25">
         <v>265</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="2">
+        <v>22.352482999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>27395</v>
       </c>
@@ -1100,8 +1179,11 @@
       <c r="H26">
         <v>270</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="2">
+        <v>-0.21658709000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27426</v>
       </c>
@@ -1126,8 +1208,11 @@
       <c r="H27">
         <v>277</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="2">
+        <v>-9.1687881999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27454</v>
       </c>
@@ -1152,8 +1237,11 @@
       <c r="H28">
         <v>280</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="2">
+        <v>-25.976413999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27485</v>
       </c>
@@ -1178,8 +1266,11 @@
       <c r="H29">
         <v>282</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="2">
+        <v>-40.734636999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27515</v>
       </c>
@@ -1204,8 +1295,11 @@
       <c r="H30">
         <v>281</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="2">
+        <v>-43.404916</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27546</v>
       </c>
@@ -1230,8 +1324,11 @@
       <c r="H31">
         <v>276</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="2">
+        <v>-36.264671999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>27576</v>
       </c>
@@ -1256,8 +1353,11 @@
       <c r="H32">
         <v>264</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="2">
+        <v>-41.253397999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>27607</v>
       </c>
@@ -1282,8 +1382,11 @@
       <c r="H33">
         <v>257</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="2">
+        <v>-44.970666999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>27638</v>
       </c>
@@ -1308,8 +1411,11 @@
       <c r="H34">
         <v>259</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="2">
+        <v>-33.766112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>27668</v>
       </c>
@@ -1334,8 +1440,11 @@
       <c r="H35">
         <v>270</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="2">
+        <v>-33.361992000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>27699</v>
       </c>
@@ -1360,8 +1469,11 @@
       <c r="H36">
         <v>271</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="2">
+        <v>-23.469118999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>27729</v>
       </c>
@@ -1386,8 +1498,11 @@
       <c r="H37">
         <v>271</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="2">
+        <v>-35.096397000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>27760</v>
       </c>
@@ -1412,8 +1527,11 @@
       <c r="H38">
         <v>289</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="2">
+        <v>-45.406438999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>27791</v>
       </c>
@@ -1438,8 +1556,11 @@
       <c r="H39">
         <v>277</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="2">
+        <v>-49.670679999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>27820</v>
       </c>
@@ -1464,8 +1585,11 @@
       <c r="H40">
         <v>283</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="2">
+        <v>-31.946528000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>27851</v>
       </c>
@@ -1490,8 +1614,11 @@
       <c r="H41">
         <v>287</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" s="2">
+        <v>-28.362895000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>27881</v>
       </c>
@@ -1516,8 +1643,11 @@
       <c r="H42">
         <v>284</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="2">
+        <v>-18.774137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>27912</v>
       </c>
@@ -1542,8 +1672,11 @@
       <c r="H43">
         <v>282</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="2">
+        <v>-15.650974</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>27942</v>
       </c>
@@ -1568,8 +1701,11 @@
       <c r="H44">
         <v>283</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="2">
+        <v>-20.965667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>27973</v>
       </c>
@@ -1594,8 +1730,11 @@
       <c r="H45">
         <v>277</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="2">
+        <v>-23.454936</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>28004</v>
       </c>
@@ -1620,8 +1759,11 @@
       <c r="H46">
         <v>284</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="2">
+        <v>-24.192941999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>28034</v>
       </c>
@@ -1646,8 +1788,11 @@
       <c r="H47">
         <v>298</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="2">
+        <v>-20.287186999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>28065</v>
       </c>
@@ -1672,8 +1817,11 @@
       <c r="H48">
         <v>299</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="2">
+        <v>-18.863043000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>28095</v>
       </c>
@@ -1698,8 +1846,11 @@
       <c r="H49">
         <v>285</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="2">
+        <v>-35.270193999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>28126</v>
       </c>
@@ -1724,8 +1875,11 @@
       <c r="H50">
         <v>294</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="2">
+        <v>-48.657210999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>28157</v>
       </c>
@@ -1750,8 +1904,11 @@
       <c r="H51">
         <v>291</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="2">
+        <v>-44.573343999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>28185</v>
       </c>
@@ -1776,8 +1933,11 @@
       <c r="H52">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" s="2">
+        <v>-44.916421999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>28216</v>
       </c>
@@ -1802,8 +1962,11 @@
       <c r="H53">
         <v>319</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="2">
+        <v>-43.042707</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>28246</v>
       </c>
@@ -1828,8 +1991,11 @@
       <c r="H54">
         <v>329</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" s="2">
+        <v>-35.300204999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>28277</v>
       </c>
@@ -1854,8 +2020,11 @@
       <c r="H55">
         <v>334</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="2">
+        <v>-40.080933999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>28307</v>
       </c>
@@ -1880,8 +2049,11 @@
       <c r="H56">
         <v>335</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" s="2">
+        <v>-43.882582999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>28338</v>
       </c>
@@ -1906,8 +2078,11 @@
       <c r="H57">
         <v>339</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" s="2">
+        <v>-46.594307000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>28369</v>
       </c>
@@ -1932,8 +2107,11 @@
       <c r="H58">
         <v>334</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" s="2">
+        <v>-46.759554999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>28399</v>
       </c>
@@ -1958,8 +2136,11 @@
       <c r="H59">
         <v>343</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59" s="2">
+        <v>-32.535451000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>28430</v>
       </c>
@@ -1984,8 +2165,11 @@
       <c r="H60">
         <v>350</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60" s="2">
+        <v>-33.021154000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>28460</v>
       </c>
@@ -2010,8 +2194,11 @@
       <c r="H61">
         <v>348</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61" s="2">
+        <v>-37.598269999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>28491</v>
       </c>
@@ -2036,8 +2223,11 @@
       <c r="H62">
         <v>352</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62" s="2">
+        <v>-38.076723000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>28522</v>
       </c>
@@ -2062,8 +2252,11 @@
       <c r="H63">
         <v>350</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" s="2">
+        <v>-38.392502</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>28550</v>
       </c>
@@ -2088,8 +2281,11 @@
       <c r="H64">
         <v>364</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64" s="2">
+        <v>-38.863866999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>28581</v>
       </c>
@@ -2114,8 +2310,11 @@
       <c r="H65">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65" s="2">
+        <v>-39.487867999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>28611</v>
       </c>
@@ -2140,8 +2339,11 @@
       <c r="H66">
         <v>355</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" s="2">
+        <v>-22.391726999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>28642</v>
       </c>
@@ -2166,8 +2368,11 @@
       <c r="H67">
         <v>363</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67" s="2">
+        <v>-16.833026</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>28672</v>
       </c>
@@ -2192,8 +2397,11 @@
       <c r="H68">
         <v>368</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68" s="2">
+        <v>-25.442035000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>28703</v>
       </c>
@@ -2218,8 +2426,11 @@
       <c r="H69">
         <v>358</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69" s="2">
+        <v>-25.889316000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>28734</v>
       </c>
@@ -2244,8 +2455,11 @@
       <c r="H70">
         <v>368</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70" s="2">
+        <v>-13.628805</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>28764</v>
       </c>
@@ -2270,8 +2484,11 @@
       <c r="H71">
         <v>378</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71" s="2">
+        <v>-17.671551999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>28795</v>
       </c>
@@ -2296,8 +2513,11 @@
       <c r="H72">
         <v>381</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72" s="2">
+        <v>-3.6543155999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>28825</v>
       </c>
@@ -2322,8 +2542,11 @@
       <c r="H73">
         <v>376</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73" s="2">
+        <v>-6.6620220999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>28856</v>
       </c>
@@ -2348,8 +2571,11 @@
       <c r="H74">
         <v>375</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74" s="2">
+        <v>-15.945789</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>28887</v>
       </c>
@@ -2374,8 +2600,11 @@
       <c r="H75">
         <v>381</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75" s="2">
+        <v>-10.499655000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>28915</v>
       </c>
@@ -2400,8 +2629,11 @@
       <c r="H76">
         <v>399</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76" s="2">
+        <v>7.3951864</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>28946</v>
       </c>
@@ -2426,8 +2658,11 @@
       <c r="H77">
         <v>403</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77" s="2">
+        <v>9.3685825999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>28976</v>
       </c>
@@ -2452,8 +2687,11 @@
       <c r="H78">
         <v>403</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78" s="2">
+        <v>29.167294999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>29007</v>
       </c>
@@ -2478,8 +2716,11 @@
       <c r="H79">
         <v>414</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79" s="2">
+        <v>46.446781999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>29037</v>
       </c>
@@ -2504,8 +2745,11 @@
       <c r="H80">
         <v>403</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80" s="2">
+        <v>54.467607999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>29068</v>
       </c>
@@ -2530,8 +2774,11 @@
       <c r="H81">
         <v>412</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81" s="2">
+        <v>37.366889999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>29099</v>
       </c>
@@ -2556,8 +2803,11 @@
       <c r="H82">
         <v>415</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82" s="2">
+        <v>43.929839000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>29129</v>
       </c>
@@ -2582,8 +2832,11 @@
       <c r="H83">
         <v>436</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83" s="2">
+        <v>43.851739999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>29160</v>
       </c>
@@ -2608,8 +2861,11 @@
       <c r="H84">
         <v>439</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84" s="2">
+        <v>49.357264000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>29190</v>
       </c>
@@ -2634,8 +2890,11 @@
       <c r="H85">
         <v>430</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85" s="2">
+        <v>35.540602</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>29221</v>
       </c>
@@ -2660,8 +2919,11 @@
       <c r="H86">
         <v>449</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86" s="2">
+        <v>34.913651000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>29252</v>
       </c>
@@ -2686,8 +2948,11 @@
       <c r="H87">
         <v>457</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87" s="2">
+        <v>40.264105000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>29281</v>
       </c>
@@ -2712,8 +2977,11 @@
       <c r="H88">
         <v>459</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88" s="2">
+        <v>42.236642000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>29312</v>
       </c>
@@ -2738,8 +3006,11 @@
       <c r="H89">
         <v>471</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89" s="2">
+        <v>60.563561</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>29342</v>
       </c>
@@ -2764,8 +3035,11 @@
       <c r="H90">
         <v>475</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90" s="2">
+        <v>63.715753999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>29373</v>
       </c>
@@ -2790,8 +3064,11 @@
       <c r="H91">
         <v>473</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91" s="2">
+        <v>56.950721000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>29403</v>
       </c>
@@ -2816,8 +3093,11 @@
       <c r="H92">
         <v>470</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92" s="2">
+        <v>44.833067999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>29434</v>
       </c>
@@ -2842,8 +3122,11 @@
       <c r="H93">
         <v>478</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93" s="2">
+        <v>53.581963999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>29465</v>
       </c>
@@ -2868,8 +3151,11 @@
       <c r="H94">
         <v>469</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94" s="2">
+        <v>54.826768999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>29495</v>
       </c>
@@ -2894,8 +3180,11 @@
       <c r="H95">
         <v>475</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95" s="2">
+        <v>54.707264000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>29526</v>
       </c>
@@ -2920,8 +3209,11 @@
       <c r="H96">
         <v>475</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96" s="2">
+        <v>64.528622999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>29556</v>
       </c>
@@ -2946,8 +3238,11 @@
       <c r="H97">
         <v>466</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97" s="2">
+        <v>68.162191000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>29587</v>
       </c>
@@ -2972,8 +3267,11 @@
       <c r="H98">
         <v>486</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98" s="2">
+        <v>63.849176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>29618</v>
       </c>
@@ -2998,8 +3296,11 @@
       <c r="H99">
         <v>494</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99" s="2">
+        <v>61.655825</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>29646</v>
       </c>
@@ -3024,8 +3325,11 @@
       <c r="H100">
         <v>514</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100" s="2">
+        <v>50.128833</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>29677</v>
       </c>
@@ -3050,8 +3354,11 @@
       <c r="H101">
         <v>532</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101" s="2">
+        <v>45.773622000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>29707</v>
       </c>
@@ -3076,8 +3383,11 @@
       <c r="H102">
         <v>544</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102" s="2">
+        <v>35.699930999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>29738</v>
       </c>
@@ -3102,8 +3412,11 @@
       <c r="H103">
         <v>548</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103" s="2">
+        <v>40.950771000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>29768</v>
       </c>
@@ -3128,8 +3441,11 @@
       <c r="H104">
         <v>559</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104" s="2">
+        <v>32.596961999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>29799</v>
       </c>
@@ -3154,8 +3470,11 @@
       <c r="H105">
         <v>547</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105" s="2">
+        <v>14.998854</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>29830</v>
       </c>
@@ -3180,8 +3499,11 @@
       <c r="H106">
         <v>555</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106" s="2">
+        <v>12.920052999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>29860</v>
       </c>
@@ -3206,8 +3528,11 @@
       <c r="H107">
         <v>579</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107" s="2">
+        <v>15.448340999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>29891</v>
       </c>
@@ -3232,8 +3557,11 @@
       <c r="H108">
         <v>589</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108" s="2">
+        <v>14.475942999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>29921</v>
       </c>
@@ -3258,8 +3586,11 @@
       <c r="H109">
         <v>594</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109" s="2">
+        <v>7.5267663999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>29952</v>
       </c>
@@ -3284,8 +3615,11 @@
       <c r="H110">
         <v>606</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110" s="2">
+        <v>2.9459995999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>29983</v>
       </c>
@@ -3310,8 +3644,11 @@
       <c r="H111">
         <v>613</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111" s="2">
+        <v>-6.4000713999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>30011</v>
       </c>
@@ -3336,8 +3673,11 @@
       <c r="H112">
         <v>609</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112" s="2">
+        <v>2.8206590999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>30042</v>
       </c>
@@ -3362,8 +3702,11 @@
       <c r="H113">
         <v>610</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113" s="2">
+        <v>10.762062</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>30072</v>
       </c>
@@ -3388,8 +3731,11 @@
       <c r="H114">
         <v>609</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114" s="2">
+        <v>7.6104123000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>30103</v>
       </c>
@@ -3414,8 +3760,11 @@
       <c r="H115">
         <v>608</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115" s="2">
+        <v>-16.736948999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>30133</v>
       </c>
@@ -3440,8 +3789,11 @@
       <c r="H116">
         <v>613</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116" s="2">
+        <v>-41.041029000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>30164</v>
       </c>
@@ -3466,8 +3818,11 @@
       <c r="H117">
         <v>626</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117" s="2">
+        <v>-43.390703000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>30195</v>
       </c>
@@ -3492,8 +3847,11 @@
       <c r="H118">
         <v>619</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118" s="2">
+        <v>-27.590892</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>30225</v>
       </c>
@@ -3518,8 +3876,11 @@
       <c r="H119">
         <v>636</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119" s="2">
+        <v>-27.028963000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>30256</v>
       </c>
@@ -3544,8 +3905,11 @@
       <c r="H120">
         <v>648</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120" s="2">
+        <v>-24.439834000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>30286</v>
       </c>
@@ -3570,8 +3934,11 @@
       <c r="H121">
         <v>644</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121" s="2">
+        <v>-19.692951000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>30317</v>
       </c>
@@ -3596,8 +3963,11 @@
       <c r="H122">
         <v>660</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122" s="2">
+        <v>-17.667912000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>30348</v>
       </c>
@@ -3622,8 +3992,11 @@
       <c r="H123">
         <v>669</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I123" s="2">
+        <v>-12.797698</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>30376</v>
       </c>
@@ -3648,8 +4021,11 @@
       <c r="H124">
         <v>667</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I124" s="2">
+        <v>-9.9127852000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>30407</v>
       </c>
@@ -3674,8 +4050,11 @@
       <c r="H125">
         <v>679</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I125" s="2">
+        <v>-7.2289421999999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>30437</v>
       </c>
@@ -3700,8 +4079,11 @@
       <c r="H126">
         <v>679</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I126" s="2">
+        <v>-7.4396857000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>30468</v>
       </c>
@@ -3726,8 +4108,11 @@
       <c r="H127">
         <v>683</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I127" s="2">
+        <v>-22.381616999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>30498</v>
       </c>
@@ -3752,8 +4137,11 @@
       <c r="H128">
         <v>676</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128" s="2">
+        <v>-33.641584000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>30529</v>
       </c>
@@ -3778,8 +4166,11 @@
       <c r="H129">
         <v>700</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129" s="2">
+        <v>-34.690342999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>30560</v>
       </c>
@@ -3804,8 +4195,11 @@
       <c r="H130">
         <v>708</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130" s="2">
+        <v>-31.677955999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>30590</v>
       </c>
@@ -3830,8 +4224,11 @@
       <c r="H131">
         <v>716</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131" s="2">
+        <v>-28.714397999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>30621</v>
       </c>
@@ -3856,8 +4253,11 @@
       <c r="H132">
         <v>713</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132" s="2">
+        <v>-21.342146</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>30651</v>
       </c>
@@ -3882,8 +4282,11 @@
       <c r="H133">
         <v>723</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133" s="2">
+        <v>-31.669796999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>30682</v>
       </c>
@@ -3908,8 +4311,11 @@
       <c r="H134">
         <v>733</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I134" s="2">
+        <v>-29.809011999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>30713</v>
       </c>
@@ -3934,8 +4340,11 @@
       <c r="H135">
         <v>727</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I135" s="2">
+        <v>-23.183592999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>30742</v>
       </c>
@@ -3960,8 +4369,11 @@
       <c r="H136">
         <v>728</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I136" s="2">
+        <v>-18.94012</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>30773</v>
       </c>
@@ -3986,8 +4398,11 @@
       <c r="H137">
         <v>742</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137" s="2">
+        <v>-14.973718</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>30803</v>
       </c>
@@ -4012,8 +4427,11 @@
       <c r="H138">
         <v>763</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I138" s="2">
+        <v>-15.613628</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>30834</v>
       </c>
@@ -4038,8 +4456,11 @@
       <c r="H139">
         <v>767</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I139" s="2">
+        <v>-24.471786000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>30864</v>
       </c>
@@ -4064,8 +4485,11 @@
       <c r="H140">
         <v>772</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I140" s="2">
+        <v>-29.366095000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>30895</v>
       </c>
@@ -4090,8 +4514,11 @@
       <c r="H141">
         <v>764</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I141" s="2">
+        <v>-28.522500999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>30926</v>
       </c>
@@ -4116,8 +4543,11 @@
       <c r="H142">
         <v>756</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I142" s="2">
+        <v>-25.383958</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>30956</v>
       </c>
@@ -4142,8 +4572,11 @@
       <c r="H143">
         <v>780</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I143" s="2">
+        <v>-24.117360000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>30987</v>
       </c>
@@ -4168,8 +4601,11 @@
       <c r="H144">
         <v>787</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I144" s="2">
+        <v>-16.577293000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>31017</v>
       </c>
@@ -4194,8 +4630,11 @@
       <c r="H145">
         <v>796</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I145" s="2">
+        <v>-19.740469000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>31048</v>
       </c>
@@ -4220,8 +4659,11 @@
       <c r="H146">
         <v>794</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146" s="2">
+        <v>-23.301023000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>31079</v>
       </c>
@@ -4246,8 +4688,11 @@
       <c r="H147">
         <v>782</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I147" s="2">
+        <v>-27.635959</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>31107</v>
       </c>
@@ -4272,8 +4717,11 @@
       <c r="H148">
         <v>791</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I148" s="2">
+        <v>-25.911083999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>31138</v>
       </c>
@@ -4298,8 +4746,11 @@
       <c r="H149">
         <v>807</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149" s="2">
+        <v>-20.933129999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>31168</v>
       </c>
@@ -4324,8 +4775,11 @@
       <c r="H150">
         <v>829</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I150" s="2">
+        <v>-24.960809000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>31199</v>
       </c>
@@ -4350,8 +4804,11 @@
       <c r="H151">
         <v>821</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I151" s="2">
+        <v>-34.470393000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>31229</v>
       </c>
@@ -4376,8 +4833,11 @@
       <c r="H152">
         <v>811</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I152" s="2">
+        <v>-50.220260000000003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>31260</v>
       </c>
@@ -4402,8 +4862,11 @@
       <c r="H153">
         <v>806</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I153" s="2">
+        <v>-57.68459</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>31291</v>
       </c>
@@ -4428,8 +4891,11 @@
       <c r="H154">
         <v>807</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I154" s="2">
+        <v>-50.139916999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>31321</v>
       </c>
@@ -4454,8 +4920,11 @@
       <c r="H155">
         <v>804</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I155" s="2">
+        <v>-37.074528999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>31352</v>
       </c>
@@ -4480,8 +4949,11 @@
       <c r="H156">
         <v>812</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I156" s="2">
+        <v>-36.259154000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>31382</v>
       </c>
@@ -4506,8 +4978,11 @@
       <c r="H157">
         <v>814</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I157" s="2">
+        <v>-36.113281999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>31413</v>
       </c>
@@ -4532,8 +5007,11 @@
       <c r="H158">
         <v>826</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I158" s="2">
+        <v>-37.871952</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>31444</v>
       </c>
@@ -4558,8 +5036,11 @@
       <c r="H159">
         <v>827</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I159" s="2">
+        <v>-51.829723999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>31472</v>
       </c>
@@ -4584,8 +5065,11 @@
       <c r="H160">
         <v>838</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I160" s="2">
+        <v>-55.476852000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>31503</v>
       </c>
@@ -4610,8 +5094,11 @@
       <c r="H161">
         <v>837</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I161" s="2">
+        <v>-61.645055999999997</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>31533</v>
       </c>
@@ -4636,8 +5123,11 @@
       <c r="H162">
         <v>829</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I162" s="2">
+        <v>-66.486732000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>31564</v>
       </c>
@@ -4662,8 +5152,11 @@
       <c r="H163">
         <v>828</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I163" s="2">
+        <v>-69.452395999999993</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>31594</v>
       </c>
@@ -4688,8 +5181,11 @@
       <c r="H164">
         <v>845</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I164" s="2">
+        <v>-81.082785999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>31625</v>
       </c>
@@ -4714,8 +5210,11 @@
       <c r="H165">
         <v>838</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I165" s="2">
+        <v>-78.423936999999995</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>31656</v>
       </c>
@@ -4740,8 +5239,11 @@
       <c r="H166">
         <v>844</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I166" s="2">
+        <v>-54.388871000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>31686</v>
       </c>
@@ -4766,8 +5268,11 @@
       <c r="H167">
         <v>851</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I167" s="2">
+        <v>-48.945979000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>31717</v>
       </c>
@@ -4792,8 +5297,11 @@
       <c r="H168">
         <v>849</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I168" s="2">
+        <v>-51.270592999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>31747</v>
       </c>
@@ -4818,8 +5326,11 @@
       <c r="H169">
         <v>843</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I169" s="2">
+        <v>-60.266097000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>31778</v>
       </c>
@@ -4844,8 +5355,11 @@
       <c r="H170">
         <v>848</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I170" s="2">
+        <v>-46.674559000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>31809</v>
       </c>
@@ -4870,8 +5384,11 @@
       <c r="H171">
         <v>849</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I171" s="2">
+        <v>-41.951425</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>31837</v>
       </c>
@@ -4896,8 +5413,11 @@
       <c r="H172">
         <v>852</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I172" s="2">
+        <v>-35.247731999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>31868</v>
       </c>
@@ -4922,8 +5442,11 @@
       <c r="H173">
         <v>851</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I173" s="2">
+        <v>-25.356082000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>31898</v>
       </c>
@@ -4948,8 +5471,11 @@
       <c r="H174">
         <v>850</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I174" s="2">
+        <v>-19.612995999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>31929</v>
       </c>
@@ -4974,8 +5500,11 @@
       <c r="H175">
         <v>855</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I175" s="2">
+        <v>-30.906030999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>31959</v>
       </c>
@@ -5000,8 +5529,11 @@
       <c r="H176">
         <v>854</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I176" s="2">
+        <v>-33.855243000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>31990</v>
       </c>
@@ -5026,8 +5558,11 @@
       <c r="H177">
         <v>864</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I177" s="2">
+        <v>-18.977108999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>32021</v>
       </c>
@@ -5052,8 +5587,11 @@
       <c r="H178">
         <v>871</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I178" s="2">
+        <v>-22.529709</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>32051</v>
       </c>
@@ -5078,8 +5616,11 @@
       <c r="H179">
         <v>892</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I179" s="2">
+        <v>-17.533315999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>32082</v>
       </c>
@@ -5104,8 +5645,11 @@
       <c r="H180">
         <v>902</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I180" s="2">
+        <v>-12.526446999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>32112</v>
       </c>
@@ -5130,8 +5674,11 @@
       <c r="H181">
         <v>890</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I181" s="2">
+        <v>-5.3418992000000003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>32143</v>
       </c>
@@ -5156,8 +5703,11 @@
       <c r="H182">
         <v>888</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I182" s="2">
+        <v>2.6686285999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>32174</v>
       </c>
@@ -5182,8 +5732,11 @@
       <c r="H183">
         <v>892</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I183" s="2">
+        <v>13.911968</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>32203</v>
       </c>
@@ -5208,8 +5761,11 @@
       <c r="H184">
         <v>899</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I184" s="2">
+        <v>19.000836</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>32234</v>
       </c>
@@ -5234,8 +5790,11 @@
       <c r="H185">
         <v>905</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I185" s="2">
+        <v>11.454389000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>32264</v>
       </c>
@@ -5260,8 +5819,11 @@
       <c r="H186">
         <v>908</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I186" s="2">
+        <v>5.0001666</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>32295</v>
       </c>
@@ -5286,8 +5848,11 @@
       <c r="H187">
         <v>909</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I187" s="2">
+        <v>-5.3163501999999996</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>32325</v>
       </c>
@@ -5312,8 +5877,11 @@
       <c r="H188">
         <v>901</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I188" s="2">
+        <v>-11.679568</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>32356</v>
       </c>
@@ -5338,8 +5906,11 @@
       <c r="H189">
         <v>886</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I189" s="2">
+        <v>-9.6172435000000007</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>32387</v>
       </c>
@@ -5364,8 +5935,11 @@
       <c r="H190">
         <v>883</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I190" s="2">
+        <v>-5.0740604999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>32417</v>
       </c>
@@ -5390,8 +5964,11 @@
       <c r="H191">
         <v>896</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I191" s="2">
+        <v>-2.1695148999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>32448</v>
       </c>
@@ -5416,8 +5993,11 @@
       <c r="H192">
         <v>896</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I192" s="2">
+        <v>7.6023676</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>32478</v>
       </c>
@@ -5442,8 +6022,11 @@
       <c r="H193">
         <v>890</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I193" s="2">
+        <v>11.06873</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>32509</v>
       </c>
@@ -5468,8 +6051,11 @@
       <c r="H194">
         <v>895</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I194" s="2">
+        <v>17.530815</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>32540</v>
       </c>
@@ -5494,8 +6080,11 @@
       <c r="H195">
         <v>897</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I195" s="2">
+        <v>11.963023</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>32568</v>
       </c>
@@ -5520,8 +6109,11 @@
       <c r="H196">
         <v>893</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I196" s="2">
+        <v>17.279281999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>32599</v>
       </c>
@@ -5546,8 +6138,11 @@
       <c r="H197">
         <v>908</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I197" s="2">
+        <v>16.707032000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>32629</v>
       </c>
@@ -5572,8 +6167,11 @@
       <c r="H198">
         <v>916</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I198" s="2">
+        <v>21.258434999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>32660</v>
       </c>
@@ -5598,8 +6196,11 @@
       <c r="H199">
         <v>903</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I199" s="2">
+        <v>2.8414823999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>32690</v>
       </c>
@@ -5624,8 +6225,11 @@
       <c r="H200">
         <v>908</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I200" s="2">
+        <v>0.75877737000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>32721</v>
       </c>
@@ -5650,8 +6254,11 @@
       <c r="H201">
         <v>916</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I201" s="2">
+        <v>2.1350606999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>32752</v>
       </c>
@@ -5676,8 +6283,11 @@
       <c r="H202">
         <v>912</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I202" s="2">
+        <v>3.6063543</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>32782</v>
       </c>
@@ -5702,8 +6312,11 @@
       <c r="H203">
         <v>914</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I203" s="2">
+        <v>10.308712</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>32813</v>
       </c>
@@ -5728,8 +6341,11 @@
       <c r="H204">
         <v>930</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I204" s="2">
+        <v>17.845665</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>32843</v>
       </c>
@@ -5754,8 +6370,11 @@
       <c r="H205">
         <v>921</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I205" s="2">
+        <v>14.254084000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>32874</v>
       </c>
@@ -5780,8 +6399,11 @@
       <c r="H206">
         <v>930</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I206" s="2">
+        <v>16.179525000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>32905</v>
       </c>
@@ -5806,8 +6428,11 @@
       <c r="H207">
         <v>920</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I207" s="2">
+        <v>12.739532000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>32933</v>
       </c>
@@ -5832,8 +6457,11 @@
       <c r="H208">
         <v>953</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I208" s="2">
+        <v>12.182169</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>32964</v>
       </c>
@@ -5858,8 +6486,11 @@
       <c r="H209">
         <v>954</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I209" s="2">
+        <v>2.3404104999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>32994</v>
       </c>
@@ -5884,8 +6515,11 @@
       <c r="H210">
         <v>969</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I210" s="2">
+        <v>-6.5687958999999996</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>33025</v>
       </c>
@@ -5910,8 +6544,11 @@
       <c r="H211">
         <v>971</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I211" s="2">
+        <v>-15.402734000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>33055</v>
       </c>
@@ -5936,8 +6573,11 @@
       <c r="H212">
         <v>966</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I212" s="2">
+        <v>-25.389793000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>33086</v>
       </c>
@@ -5962,8 +6602,11 @@
       <c r="H213">
         <v>959</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I213" s="2">
+        <v>-16.379846000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>33117</v>
       </c>
@@ -5988,8 +6631,11 @@
       <c r="H214">
         <v>932</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I214" s="2">
+        <v>-18.982399999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>33147</v>
       </c>
@@ -6014,8 +6660,11 @@
       <c r="H215">
         <v>936</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I215" s="2">
+        <v>-14.972141000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>33178</v>
       </c>
@@ -6040,8 +6689,11 @@
       <c r="H216">
         <v>925</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I216" s="2">
+        <v>-10.014564999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>33208</v>
       </c>
@@ -6066,8 +6718,11 @@
       <c r="H217">
         <v>908</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I217" s="2">
+        <v>-0.74397301000000005</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>33239</v>
       </c>
@@ -6092,8 +6747,11 @@
       <c r="H218">
         <v>906</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I218" s="2">
+        <v>-0.12270438</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>33270</v>
       </c>
@@ -6118,8 +6776,11 @@
       <c r="H219">
         <v>913</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I219" s="2">
+        <v>9.6273166000000003</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>33298</v>
       </c>
@@ -6144,8 +6805,11 @@
       <c r="H220">
         <v>905</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I220" s="2">
+        <v>17.561520999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>33329</v>
       </c>
@@ -6170,8 +6834,11 @@
       <c r="H221">
         <v>907</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I221" s="2">
+        <v>10.103344999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>33359</v>
       </c>
@@ -6196,8 +6863,11 @@
       <c r="H222">
         <v>924</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I222" s="2">
+        <v>13.932726000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>33390</v>
       </c>
@@ -6222,8 +6892,11 @@
       <c r="H223">
         <v>915</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I223" s="2">
+        <v>16.110938000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>33420</v>
       </c>
@@ -6248,8 +6921,11 @@
       <c r="H224">
         <v>911</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I224" s="2">
+        <v>7.6318837999999998</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>33451</v>
       </c>
@@ -6274,8 +6950,11 @@
       <c r="H225">
         <v>914</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I225" s="2">
+        <v>2.4647887000000002</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>33482</v>
       </c>
@@ -6300,8 +6979,11 @@
       <c r="H226">
         <v>909</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I226" s="2">
+        <v>5.5674777999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>33512</v>
       </c>
@@ -6326,8 +7008,11 @@
       <c r="H227">
         <v>911</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I227" s="2">
+        <v>9.9040230999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>33543</v>
       </c>
@@ -6352,8 +7037,11 @@
       <c r="H228">
         <v>912</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I228" s="2">
+        <v>10.496086</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>33573</v>
       </c>
@@ -6378,8 +7066,11 @@
       <c r="H229">
         <v>893</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I229" s="2">
+        <v>5.0500714000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>33604</v>
       </c>
@@ -6404,8 +7095,11 @@
       <c r="H230">
         <v>910</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I230" s="2">
+        <v>2.1697522999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>33635</v>
       </c>
@@ -6430,8 +7124,11 @@
       <c r="H231">
         <v>915</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I231" s="2">
+        <v>-11.190692</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>33664</v>
       </c>
@@ -6456,8 +7153,11 @@
       <c r="H232">
         <v>907</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I232" s="2">
+        <v>-18.523806</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>33695</v>
       </c>
@@ -6482,8 +7182,11 @@
       <c r="H233">
         <v>917</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I233" s="2">
+        <v>-22.345410000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>33725</v>
       </c>
@@ -6508,8 +7211,11 @@
       <c r="H234">
         <v>912</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I234" s="2">
+        <v>-14.683774</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>33756</v>
       </c>
@@ -6534,8 +7240,11 @@
       <c r="H235">
         <v>895</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I235" s="2">
+        <v>-22.694002000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>33786</v>
       </c>
@@ -6560,8 +7269,11 @@
       <c r="H236">
         <v>902</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I236" s="2">
+        <v>-32.126598999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>33817</v>
       </c>
@@ -6586,8 +7298,11 @@
       <c r="H237">
         <v>898</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I237" s="2">
+        <v>-32.084581</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>33848</v>
       </c>
@@ -6612,8 +7327,11 @@
       <c r="H238">
         <v>893</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I238" s="2">
+        <v>-33.456646999999997</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>33878</v>
       </c>
@@ -6638,8 +7356,11 @@
       <c r="H239">
         <v>906</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I239" s="2">
+        <v>-32.868358000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>33909</v>
       </c>
@@ -6664,8 +7385,11 @@
       <c r="H240">
         <v>899</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I240" s="2">
+        <v>-20.107479999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>33939</v>
       </c>
@@ -6690,8 +7414,11 @@
       <c r="H241">
         <v>893</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I241" s="2">
+        <v>-8.3082750000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>33970</v>
       </c>
@@ -6716,8 +7443,11 @@
       <c r="H242">
         <v>901</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I242" s="2">
+        <v>-12.935968000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>34001</v>
       </c>
@@ -6742,8 +7472,11 @@
       <c r="H243">
         <v>907</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I243" s="2">
+        <v>-10.778031</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>34029</v>
       </c>
@@ -6768,8 +7501,11 @@
       <c r="H244">
         <v>915</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I244" s="2">
+        <v>-2.6650931</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>34060</v>
       </c>
@@ -6794,8 +7530,11 @@
       <c r="H245">
         <v>931</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I245" s="2">
+        <v>1.3607241000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>34090</v>
       </c>
@@ -6820,8 +7559,11 @@
       <c r="H246">
         <v>935</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I246" s="2">
+        <v>7.4360273000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>34121</v>
       </c>
@@ -6846,8 +7588,11 @@
       <c r="H247">
         <v>935</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I247" s="2">
+        <v>4.0927997999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>34151</v>
       </c>
@@ -6872,8 +7617,11 @@
       <c r="H248">
         <v>936</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I248" s="2">
+        <v>-7.3958246000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>34182</v>
       </c>
@@ -6898,8 +7646,11 @@
       <c r="H249">
         <v>920</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I249" s="2">
+        <v>-6.7180808000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>34213</v>
       </c>
@@ -6924,8 +7675,11 @@
       <c r="H250">
         <v>906</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I250" s="2">
+        <v>-4.5546762000000003</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>34243</v>
       </c>
@@ -6950,8 +7704,11 @@
       <c r="H251">
         <v>917</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I251" s="2">
+        <v>-8.1062226000000006</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>34274</v>
       </c>
@@ -6976,8 +7733,11 @@
       <c r="H252">
         <v>924</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I252" s="2">
+        <v>-13.690600999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>34304</v>
       </c>
@@ -7002,8 +7762,11 @@
       <c r="H253">
         <v>922</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I253" s="2">
+        <v>-18.871759999999998</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>34335</v>
       </c>
@@ -7028,8 +7791,11 @@
       <c r="H254">
         <v>925</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I254" s="2">
+        <v>-19.361149000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>34366</v>
       </c>
@@ -7054,8 +7820,11 @@
       <c r="H255">
         <v>923</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I255" s="2">
+        <v>-25.443304999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>34394</v>
       </c>
@@ -7080,8 +7849,11 @@
       <c r="H256">
         <v>933</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I256" s="2">
+        <v>-26.075337999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>34425</v>
       </c>
@@ -7106,8 +7878,11 @@
       <c r="H257">
         <v>931</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I257" s="2">
+        <v>-13.855617000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>34455</v>
       </c>
@@ -7132,8 +7907,11 @@
       <c r="H258">
         <v>923</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I258" s="2">
+        <v>-0.96012551000000002</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>34486</v>
       </c>
@@ -7158,8 +7936,11 @@
       <c r="H259">
         <v>920</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I259" s="2">
+        <v>-10.295794000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>34516</v>
       </c>
@@ -7184,8 +7965,11 @@
       <c r="H260">
         <v>924</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I260" s="2">
+        <v>-6.3211633999999997</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>34547</v>
       </c>
@@ -7210,8 +7994,11 @@
       <c r="H261">
         <v>920</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I261" s="2">
+        <v>-1.0813372999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>34578</v>
       </c>
@@ -7236,8 +8023,11 @@
       <c r="H262">
         <v>927</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I262" s="2">
+        <v>2.5905646</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>34608</v>
       </c>
@@ -7262,8 +8052,11 @@
       <c r="H263">
         <v>935</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I263" s="2">
+        <v>18.924036000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>34639</v>
       </c>
@@ -7288,8 +8081,11 @@
       <c r="H264">
         <v>938</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I264" s="2">
+        <v>21.761196999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>34669</v>
       </c>
@@ -7314,8 +8110,11 @@
       <c r="H265">
         <v>929</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I265" s="2">
+        <v>28.521666</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>34700</v>
       </c>
@@ -7340,8 +8139,11 @@
       <c r="H266">
         <v>922</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I266" s="2">
+        <v>29.614101999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>34731</v>
       </c>
@@ -7366,8 +8168,11 @@
       <c r="H267">
         <v>921</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I267" s="2">
+        <v>28.162559999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>34759</v>
       </c>
@@ -7392,8 +8197,11 @@
       <c r="H268">
         <v>931</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I268" s="2">
+        <v>37.975788000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>34790</v>
       </c>
@@ -7418,8 +8226,11 @@
       <c r="H269">
         <v>928</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I269" s="2">
+        <v>40.525491000000002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>34820</v>
       </c>
@@ -7444,8 +8255,11 @@
       <c r="H270">
         <v>924</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I270" s="2">
+        <v>40.090226999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>34851</v>
       </c>
@@ -7470,8 +8284,11 @@
       <c r="H271">
         <v>920</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I271" s="2">
+        <v>28.620432999999998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>34881</v>
       </c>
@@ -7496,8 +8313,11 @@
       <c r="H272">
         <v>907</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I272" s="2">
+        <v>26.839919999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>34912</v>
       </c>
@@ -7522,8 +8342,11 @@
       <c r="H273">
         <v>899</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I273" s="2">
+        <v>32.670262999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>34943</v>
       </c>
@@ -7548,8 +8371,11 @@
       <c r="H274">
         <v>898</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I274" s="2">
+        <v>28.846017</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>34973</v>
       </c>
@@ -7574,8 +8400,11 @@
       <c r="H275">
         <v>903</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I275" s="2">
+        <v>12.932767999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>35004</v>
       </c>
@@ -7600,8 +8429,11 @@
       <c r="H276">
         <v>911</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I276" s="2">
+        <v>9.2841676</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>35034</v>
       </c>
@@ -7626,8 +8458,11 @@
       <c r="H277">
         <v>895</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I277" s="2">
+        <v>7.3620134000000004</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>35065</v>
       </c>
@@ -7652,8 +8487,11 @@
       <c r="H278">
         <v>895</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I278" s="2">
+        <v>2.3354726000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>35096</v>
       </c>
@@ -7678,8 +8516,11 @@
       <c r="H279">
         <v>893</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I279" s="2">
+        <v>-5.2766070999999997</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>35125</v>
       </c>
@@ -7704,8 +8545,11 @@
       <c r="H280">
         <v>889</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I280" s="2">
+        <v>-9.0558189000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>35156</v>
       </c>
@@ -7730,8 +8574,11 @@
       <c r="H281">
         <v>890</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I281" s="2">
+        <v>-4.2765751999999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>35186</v>
       </c>
@@ -7756,8 +8603,11 @@
       <c r="H282">
         <v>890</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I282" s="2">
+        <v>-7.0946632999999997</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>35217</v>
       </c>
@@ -7782,8 +8632,11 @@
       <c r="H283">
         <v>899</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I283" s="2">
+        <v>-17.778652999999998</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>35247</v>
       </c>
@@ -7808,8 +8661,11 @@
       <c r="H284">
         <v>891</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I284" s="2">
+        <v>-30.713279</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>35278</v>
       </c>
@@ -7834,8 +8690,11 @@
       <c r="H285">
         <v>891</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I285" s="2">
+        <v>-33.583053</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>35309</v>
       </c>
@@ -7860,8 +8719,11 @@
       <c r="H286">
         <v>876</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I286" s="2">
+        <v>-39.033307000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>35339</v>
       </c>
@@ -7886,8 +8748,11 @@
       <c r="H287">
         <v>882</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I287" s="2">
+        <v>-29.745597</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>35370</v>
       </c>
@@ -7912,8 +8777,11 @@
       <c r="H288">
         <v>869</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I288" s="2">
+        <v>-5.2798736999999996</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>35400</v>
       </c>
@@ -7938,8 +8806,11 @@
       <c r="H289">
         <v>850</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I289" s="2">
+        <v>-2.8469077</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>35431</v>
       </c>
@@ -7964,8 +8835,11 @@
       <c r="H290">
         <v>864</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I290" s="2">
+        <v>-4.5031059000000004</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>35462</v>
       </c>
@@ -7990,8 +8864,11 @@
       <c r="H291">
         <v>861</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I291" s="2">
+        <v>-6.1859384999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>35490</v>
       </c>
@@ -8016,8 +8893,11 @@
       <c r="H292">
         <v>877</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I292" s="2">
+        <v>-3.7485039000000002</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>35521</v>
       </c>
@@ -8042,8 +8922,11 @@
       <c r="H293">
         <v>883</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I293" s="2">
+        <v>-10.035408</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>35551</v>
       </c>
@@ -8068,8 +8951,11 @@
       <c r="H294">
         <v>890</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I294" s="2">
+        <v>-17.474357000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>35582</v>
       </c>
@@ -8094,8 +8980,11 @@
       <c r="H295">
         <v>884</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I295" s="2">
+        <v>-17.970469999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>35612</v>
       </c>
@@ -8120,8 +9009,11 @@
       <c r="H296">
         <v>873</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I296" s="2">
+        <v>-12.804357</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>35643</v>
       </c>
@@ -8146,8 +9038,11 @@
       <c r="H297">
         <v>864</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I297" s="2">
+        <v>-16.385016</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>35674</v>
       </c>
@@ -8172,8 +9067,11 @@
       <c r="H298">
         <v>867</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I298" s="2">
+        <v>-16.240344</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>35704</v>
       </c>
@@ -8198,8 +9096,11 @@
       <c r="H299">
         <v>879</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I299" s="2">
+        <v>-14.204371</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>35735</v>
       </c>
@@ -8224,8 +9125,11 @@
       <c r="H300">
         <v>887</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I300" s="2">
+        <v>-20.963421</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>35765</v>
       </c>
@@ -8250,8 +9154,11 @@
       <c r="H301">
         <v>868</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I301" s="2">
+        <v>-21.025507999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>35796</v>
       </c>
@@ -8276,8 +9183,11 @@
       <c r="H302">
         <v>880</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I302" s="2">
+        <v>-27.598012000000001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>35827</v>
       </c>
@@ -8302,8 +9212,11 @@
       <c r="H303">
         <v>881</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I303" s="2">
+        <v>-43.444403999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>35855</v>
       </c>
@@ -8328,8 +9241,11 @@
       <c r="H304">
         <v>898</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I304" s="2">
+        <v>-36.417414999999998</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>35886</v>
       </c>
@@ -8354,8 +9270,11 @@
       <c r="H305">
         <v>915</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I305" s="2">
+        <v>-43.346262000000003</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>35916</v>
       </c>
@@ -8380,8 +9299,11 @@
       <c r="H306">
         <v>914</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I306" s="2">
+        <v>-43.736362</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>35947</v>
       </c>
@@ -8406,8 +9328,11 @@
       <c r="H307">
         <v>896</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I307" s="2">
+        <v>-52.649399000000003</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>35977</v>
       </c>
@@ -8432,8 +9357,11 @@
       <c r="H308">
         <v>901</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I308" s="2">
+        <v>-59.298645999999998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>36008</v>
       </c>
@@ -8458,8 +9386,11 @@
       <c r="H309">
         <v>892</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I309" s="2">
+        <v>-64.263665000000003</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>36039</v>
       </c>
@@ -8484,8 +9415,11 @@
       <c r="H310">
         <v>873</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I310" s="2">
+        <v>-55.420448999999998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>36069</v>
       </c>
@@ -8510,8 +9444,11 @@
       <c r="H311">
         <v>894</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I311" s="2">
+        <v>-43.419603000000002</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>36100</v>
       </c>
@@ -8536,8 +9473,11 @@
       <c r="H312">
         <v>904</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I312" s="2">
+        <v>-45.953487000000003</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>36130</v>
       </c>
@@ -8562,8 +9502,11 @@
       <c r="H313">
         <v>895</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I313" s="2">
+        <v>-58.157775999999998</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>36161</v>
       </c>
@@ -8588,8 +9531,11 @@
       <c r="H314">
         <v>904</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I314" s="2">
+        <v>-63.748989000000002</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>36192</v>
       </c>
@@ -8614,8 +9560,11 @@
       <c r="H315">
         <v>906</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I315" s="2">
+        <v>-59.560051000000001</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>36220</v>
       </c>
@@ -8640,8 +9589,11 @@
       <c r="H316">
         <v>917</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I316" s="2">
+        <v>-44.902211999999999</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>36251</v>
       </c>
@@ -8666,8 +9618,11 @@
       <c r="H317">
         <v>908</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I317" s="2">
+        <v>-49.954563</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>36281</v>
       </c>
@@ -8692,8 +9647,11 @@
       <c r="H318">
         <v>914</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I318" s="2">
+        <v>-35.839443000000003</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>36312</v>
       </c>
@@ -8718,8 +9676,11 @@
       <c r="H319">
         <v>907</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I319" s="2">
+        <v>-42.893498000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>36342</v>
       </c>
@@ -8744,8 +9705,11 @@
       <c r="H320">
         <v>908</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I320" s="2">
+        <v>-44.373517999999997</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>36373</v>
       </c>
@@ -8770,8 +9734,11 @@
       <c r="H321">
         <v>890</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I321" s="2">
+        <v>-37.627434000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>36404</v>
       </c>
@@ -8796,8 +9763,11 @@
       <c r="H322">
         <v>879</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I322" s="2">
+        <v>-28.753495999999998</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>36434</v>
       </c>
@@ -8822,8 +9792,11 @@
       <c r="H323">
         <v>876</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I323" s="2">
+        <v>-13.206027000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>36465</v>
       </c>
@@ -8848,8 +9821,11 @@
       <c r="H324">
         <v>867</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I324" s="2">
+        <v>-13.596895999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>36495</v>
       </c>
@@ -8874,8 +9850,11 @@
       <c r="H325">
         <v>852</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I325" s="2">
+        <v>-13.000197999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>36526</v>
       </c>
@@ -8900,8 +9879,11 @@
       <c r="H326">
         <v>852</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I326" s="2">
+        <v>-11.070971</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>36557</v>
       </c>
@@ -8926,8 +9908,11 @@
       <c r="H327">
         <v>855</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I327" s="2">
+        <v>-9.7301079999999995</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>36586</v>
       </c>
@@ -8952,8 +9937,11 @@
       <c r="H328">
         <v>867</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I328" s="2">
+        <v>4.9415744000000004</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>36617</v>
       </c>
@@ -8978,8 +9966,11 @@
       <c r="H329">
         <v>873</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I329" s="2">
+        <v>8.0215654000000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>36647</v>
       </c>
@@ -9004,8 +9995,11 @@
       <c r="H330">
         <v>864</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I330" s="2">
+        <v>4.0304513999999996</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>36678</v>
       </c>
@@ -9030,8 +10024,11 @@
       <c r="H331">
         <v>860</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I331" s="2">
+        <v>2.7947913999999998</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>36708</v>
       </c>
@@ -9056,8 +10053,11 @@
       <c r="H332">
         <v>853</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I332" s="2">
+        <v>4.4749939999999997</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>36739</v>
       </c>
@@ -9082,8 +10082,11 @@
       <c r="H333">
         <v>859</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I333" s="2">
+        <v>5.9260910000000004</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>36770</v>
       </c>
@@ -9108,8 +10111,11 @@
       <c r="H334">
         <v>848</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I334" s="2">
+        <v>9.9254560000000005</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>36800</v>
       </c>
@@ -9134,8 +10140,11 @@
       <c r="H335">
         <v>842</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I335" s="2">
+        <v>11.191203</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>36831</v>
       </c>
@@ -9160,8 +10169,11 @@
       <c r="H336">
         <v>834</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I336" s="2">
+        <v>10.485939999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>36861</v>
       </c>
@@ -9186,8 +10198,11 @@
       <c r="H337">
         <v>826</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I337" s="2">
+        <v>3.6307776</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>36892</v>
       </c>
@@ -9212,8 +10227,11 @@
       <c r="H338">
         <v>836</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I338" s="2">
+        <v>0.51239564000000004</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>36923</v>
       </c>
@@ -9238,8 +10256,11 @@
       <c r="H339">
         <v>824</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I339" s="2">
+        <v>-5.2694282000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>36951</v>
       </c>
@@ -9264,8 +10285,11 @@
       <c r="H340">
         <v>851</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I340" s="2">
+        <v>-3.6215443999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>36982</v>
       </c>
@@ -9290,8 +10314,11 @@
       <c r="H341">
         <v>873</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I341" s="2">
+        <v>-7.9151208999999998</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>37012</v>
       </c>
@@ -9316,8 +10343,11 @@
       <c r="H342">
         <v>872</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I342" s="2">
+        <v>-7.6389924000000002</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>37043</v>
       </c>
@@ -9342,8 +10372,11 @@
       <c r="H343">
         <v>852</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I343" s="2">
+        <v>-12.730403000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>37073</v>
       </c>
@@ -9368,8 +10401,11 @@
       <c r="H344">
         <v>857</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I344" s="2">
+        <v>-25.576815</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>37104</v>
       </c>
@@ -9394,8 +10430,11 @@
       <c r="H345">
         <v>852</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I345" s="2">
+        <v>-46.249332000000003</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>37135</v>
       </c>
@@ -9420,8 +10459,11 @@
       <c r="H346">
         <v>854</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I346" s="2">
+        <v>-50.118358999999998</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>37165</v>
       </c>
@@ -9446,8 +10488,11 @@
       <c r="H347">
         <v>858</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I347" s="2">
+        <v>-54.777160000000002</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>37196</v>
       </c>
@@ -9472,8 +10517,11 @@
       <c r="H348">
         <v>860</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I348" s="2">
+        <v>-59.466149000000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>37226</v>
       </c>
@@ -9498,8 +10546,11 @@
       <c r="H349">
         <v>862</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I349" s="2">
+        <v>-57.509072000000003</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>37257</v>
       </c>
@@ -9524,8 +10575,11 @@
       <c r="H350">
         <v>875</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I350" s="2">
+        <v>-50.739882999999999</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>37288</v>
       </c>
@@ -9550,8 +10604,11 @@
       <c r="H351">
         <v>887</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I351" s="2">
+        <v>-47.679614999999998</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>37316</v>
       </c>
@@ -9576,8 +10633,11 @@
       <c r="H352">
         <v>895</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I352" s="2">
+        <v>-37.418892</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>37347</v>
       </c>
@@ -9602,8 +10662,11 @@
       <c r="H353">
         <v>891</v>
       </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I353" s="2">
+        <v>-36.584060999999998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>37377</v>
       </c>
@@ -9628,8 +10691,11 @@
       <c r="H354">
         <v>898</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I354" s="2">
+        <v>-40.705216</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>37408</v>
       </c>
@@ -9654,8 +10720,11 @@
       <c r="H355">
         <v>894</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I355" s="2">
+        <v>-44.347335000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>37438</v>
       </c>
@@ -9680,8 +10749,11 @@
       <c r="H356">
         <v>883</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I356" s="2">
+        <v>-45.114258999999997</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>37469</v>
       </c>
@@ -9706,8 +10778,11 @@
       <c r="H357">
         <v>878</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I357" s="2">
+        <v>-43.823045</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>37500</v>
       </c>
@@ -9732,8 +10807,11 @@
       <c r="H358">
         <v>858</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I358" s="2">
+        <v>-27.306571000000002</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>37530</v>
       </c>
@@ -9758,8 +10836,11 @@
       <c r="H359">
         <v>881</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I359" s="2">
+        <v>-12.971366</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>37561</v>
       </c>
@@ -9784,8 +10865,11 @@
       <c r="H360">
         <v>884</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I360" s="2">
+        <v>-6.2470423000000004</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>37591</v>
       </c>
@@ -9810,8 +10894,11 @@
       <c r="H361">
         <v>877</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I361" s="2">
+        <v>6.9482645999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>37622</v>
       </c>
@@ -9836,8 +10923,11 @@
       <c r="H362">
         <v>873</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I362" s="2">
+        <v>8.3374401000000002</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>37653</v>
       </c>
@@ -9862,8 +10952,11 @@
       <c r="H363">
         <v>870</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I363" s="2">
+        <v>6.7651756000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>37681</v>
       </c>
@@ -9888,8 +10981,11 @@
       <c r="H364">
         <v>881</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I364" s="2">
+        <v>16.760425999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>37712</v>
       </c>
@@ -9914,8 +11010,11 @@
       <c r="H365">
         <v>891</v>
       </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I365" s="2">
+        <v>28.249362999999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>37742</v>
       </c>
@@ -9940,8 +11039,11 @@
       <c r="H366">
         <v>889</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I366" s="2">
+        <v>36.355209000000002</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>37773</v>
       </c>
@@ -9966,8 +11068,11 @@
       <c r="H367">
         <v>893</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I367" s="2">
+        <v>32.055968999999997</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>37803</v>
       </c>
@@ -9992,8 +11097,11 @@
       <c r="H368">
         <v>897</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I368" s="2">
+        <v>34.478307999999998</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>37834</v>
       </c>
@@ -10018,8 +11126,11 @@
       <c r="H369">
         <v>898</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I369" s="2">
+        <v>38.404229999999998</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>37865</v>
       </c>
@@ -10044,8 +11155,11 @@
       <c r="H370">
         <v>911</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I370" s="2">
+        <v>45.698757999999998</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>37895</v>
       </c>
@@ -10070,8 +11184,11 @@
       <c r="H371">
         <v>926</v>
       </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I371" s="2">
+        <v>98.453999999999994</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>37926</v>
       </c>
@@ -10096,8 +11213,11 @@
       <c r="H372">
         <v>915</v>
       </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I372" s="2">
+        <v>100.62978</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>37956</v>
       </c>
@@ -10122,8 +11242,11 @@
       <c r="H373">
         <v>907</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I373" s="2">
+        <v>108.63061999999999</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>37987</v>
       </c>
@@ -10148,8 +11271,11 @@
       <c r="H374">
         <v>913</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I374" s="2">
+        <v>120.98274000000001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>38018</v>
       </c>
@@ -10174,8 +11300,11 @@
       <c r="H375">
         <v>931</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I375" s="2">
+        <v>125.06937000000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>38047</v>
       </c>
@@ -10200,8 +11329,11 @@
       <c r="H376">
         <v>949</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I376" s="2">
+        <v>118.9854</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>38078</v>
       </c>
@@ -10226,8 +11358,11 @@
       <c r="H377">
         <v>962</v>
       </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I377" s="2">
+        <v>105.61967</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>38108</v>
       </c>
@@ -10252,8 +11387,11 @@
       <c r="H378">
         <v>966</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I378" s="2">
+        <v>83.174447999999998</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>38139</v>
       </c>
@@ -10278,8 +11416,11 @@
       <c r="H379">
         <v>967</v>
       </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I379" s="2">
+        <v>61.522545999999998</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>38169</v>
       </c>
@@ -10304,8 +11445,11 @@
       <c r="H380">
         <v>960</v>
       </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I380" s="2">
+        <v>87.957736999999995</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>38200</v>
       </c>
@@ -10330,8 +11474,11 @@
       <c r="H381">
         <v>948</v>
       </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I381" s="2">
+        <v>97.914559999999994</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>38231</v>
       </c>
@@ -10356,8 +11503,11 @@
       <c r="H382">
         <v>943</v>
       </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I382" s="2">
+        <v>97.085597000000007</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>38261</v>
       </c>
@@ -10382,8 +11532,11 @@
       <c r="H383">
         <v>957</v>
       </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I383" s="2">
+        <v>105.8986</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>38292</v>
       </c>
@@ -10408,8 +11561,11 @@
       <c r="H384">
         <v>961</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I384" s="2">
+        <v>121.25924000000001</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>38322</v>
       </c>
@@ -10434,8 +11590,11 @@
       <c r="H385">
         <v>961</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I385" s="2">
+        <v>125.30011</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>38353</v>
       </c>
@@ -10460,8 +11619,11 @@
       <c r="H386">
         <v>950.33333333333303</v>
       </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I386" s="2">
+        <v>105.14634</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>38384</v>
       </c>
@@ -10486,8 +11648,11 @@
       <c r="H387">
         <v>968.33333333333303</v>
       </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I387" s="2">
+        <v>105.55538</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>38412</v>
       </c>
@@ -10512,8 +11677,11 @@
       <c r="H388">
         <v>992.33333333333303</v>
       </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I388" s="2">
+        <v>108.5245</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>38443</v>
       </c>
@@ -10538,8 +11706,11 @@
       <c r="H389">
         <v>1014.33333333333</v>
       </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I389" s="2">
+        <v>105.20507000000001</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>38473</v>
       </c>
@@ -10564,8 +11735,11 @@
       <c r="H390">
         <v>1014.33333333333</v>
       </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I390" s="2">
+        <v>84.239317999999997</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>38504</v>
       </c>
@@ -10590,8 +11764,11 @@
       <c r="H391">
         <v>1008.33333333333</v>
       </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I391" s="2">
+        <v>55.535558999999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>38534</v>
       </c>
@@ -10616,8 +11793,11 @@
       <c r="H392">
         <v>1001.33333333333</v>
       </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I392" s="2">
+        <v>33.706502999999998</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>38565</v>
       </c>
@@ -10642,8 +11822,11 @@
       <c r="H393">
         <v>994.33333333333303</v>
       </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I393" s="2">
+        <v>32.666932000000003</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>38596</v>
       </c>
@@ -10668,8 +11851,11 @@
       <c r="H394">
         <v>984.33333333333303</v>
       </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I394" s="2">
+        <v>55.402309000000002</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>38626</v>
       </c>
@@ -10694,8 +11880,11 @@
       <c r="H395">
         <v>991.33333333333303</v>
       </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I395" s="2">
+        <v>67.397212999999994</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>38657</v>
       </c>
@@ -10720,8 +11909,11 @@
       <c r="H396">
         <v>992.33333333333303</v>
       </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I396" s="2">
+        <v>59.994725000000003</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>38687</v>
       </c>
@@ -10746,8 +11938,11 @@
       <c r="H397">
         <v>992.33333333333303</v>
       </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I397" s="2">
+        <v>48.686137000000002</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>38718</v>
       </c>
@@ -10772,8 +11967,11 @@
       <c r="H398">
         <v>968.83333333333303</v>
       </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I398" s="2">
+        <v>34.317551999999999</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>38749</v>
       </c>
@@ -10798,8 +11996,11 @@
       <c r="H399">
         <v>988.83333333333303</v>
       </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I399" s="2">
+        <v>42.167603999999997</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>38777</v>
       </c>
@@ -10824,8 +12025,11 @@
       <c r="H400">
         <v>990.83333333333303</v>
       </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I400" s="2">
+        <v>48.327885999999999</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>38808</v>
       </c>
@@ -10850,8 +12054,11 @@
       <c r="H401">
         <v>997.83333333333303</v>
       </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I401" s="2">
+        <v>42.696438999999998</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>38838</v>
       </c>
@@ -10876,8 +12083,11 @@
       <c r="H402">
         <v>990.83333333333303</v>
       </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I402" s="2">
+        <v>41.622036999999999</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>38869</v>
       </c>
@@ -10902,8 +12112,11 @@
       <c r="H403">
         <v>986.83333333333303</v>
       </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I403" s="2">
+        <v>52.243402000000003</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>38899</v>
       </c>
@@ -10928,8 +12141,11 @@
       <c r="H404">
         <v>980.83333333333303</v>
       </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I404" s="2">
+        <v>63.385865000000003</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>38930</v>
       </c>
@@ -10954,8 +12170,11 @@
       <c r="H405">
         <v>982.83333333333303</v>
       </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I405" s="2">
+        <v>82.071978999999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>38961</v>
       </c>
@@ -10980,8 +12199,11 @@
       <c r="H406">
         <v>982.83333333333303</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I406" s="2">
+        <v>91.843815000000006</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>38991</v>
       </c>
@@ -11006,8 +12228,11 @@
       <c r="H407">
         <v>989.83333333333303</v>
       </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I407" s="2">
+        <v>92.177422000000007</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>39022</v>
       </c>
@@ -11032,8 +12257,11 @@
       <c r="H408">
         <v>984.83333333333303</v>
       </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I408" s="2">
+        <v>96.232529999999997</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>39052</v>
       </c>
@@ -11058,8 +12286,11 @@
       <c r="H409">
         <v>962.83333333333303</v>
       </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I409" s="2">
+        <v>99.276155000000003</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>39083</v>
       </c>
@@ -11084,8 +12315,11 @@
       <c r="H410">
         <v>963.16666666666697</v>
       </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I410" s="2">
+        <v>102.13639999999999</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>39114</v>
       </c>
@@ -11110,8 +12344,11 @@
       <c r="H411">
         <v>956.16666666666697</v>
       </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I411" s="2">
+        <v>100.46614</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>39142</v>
       </c>
@@ -11136,8 +12373,11 @@
       <c r="H412">
         <v>969.16666666666697</v>
       </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I412" s="2">
+        <v>115.36805</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>39173</v>
       </c>
@@ -11162,8 +12402,11 @@
       <c r="H413">
         <v>981.16666666666697</v>
       </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I413" s="2">
+        <v>126.84549</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>39203</v>
       </c>
@@ -11188,8 +12431,11 @@
       <c r="H414">
         <v>994.16666666666697</v>
       </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I414" s="2">
+        <v>137.26611</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>39234</v>
       </c>
@@ -11214,8 +12460,11 @@
       <c r="H415">
         <v>994.16666666666697</v>
       </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I415" s="2">
+        <v>126.83707</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>39264</v>
       </c>
@@ -11240,8 +12489,11 @@
       <c r="H416">
         <v>977.16666666666697</v>
       </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I416" s="2">
+        <v>139.80068</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>39295</v>
       </c>
@@ -11266,8 +12518,11 @@
       <c r="H417">
         <v>961.16666666666697</v>
       </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I417" s="2">
+        <v>148.98822000000001</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>39326</v>
       </c>
@@ -11292,8 +12547,11 @@
       <c r="H418">
         <v>954.16666666666697</v>
       </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I418" s="2">
+        <v>166.26170999999999</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>39356</v>
       </c>
@@ -11318,8 +12576,11 @@
       <c r="H419">
         <v>951.16666666666697</v>
       </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I419" s="2">
+        <v>185.66265000000001</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>39387</v>
       </c>
@@ -11344,8 +12605,11 @@
       <c r="H420">
         <v>945.16666666666697</v>
       </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I420" s="2">
+        <v>186.16692</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>39417</v>
       </c>
@@ -11370,8 +12634,11 @@
       <c r="H421">
         <v>933.16666666666697</v>
       </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I421" s="2">
+        <v>179.28062</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>39448</v>
       </c>
@@ -11396,8 +12663,11 @@
       <c r="H422">
         <v>994.58333333333303</v>
       </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I422" s="2">
+        <v>147.30081000000001</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>39479</v>
       </c>
@@ -11422,8 +12692,11 @@
       <c r="H423">
         <v>1000.58333333333</v>
       </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I423" s="2">
+        <v>143.00492</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>39508</v>
       </c>
@@ -11448,8 +12721,11 @@
       <c r="H424">
         <v>1014.58333333333</v>
       </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I424" s="2">
+        <v>158.76325</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>39539</v>
       </c>
@@ -11474,8 +12750,11 @@
       <c r="H425">
         <v>1020.58333333333</v>
       </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I425" s="2">
+        <v>161.43386000000001</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>39569</v>
       </c>
@@ -11500,8 +12779,11 @@
       <c r="H426">
         <v>1007.58333333333</v>
       </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I426" s="2">
+        <v>187.89779999999999</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>39600</v>
       </c>
@@ -11526,8 +12808,11 @@
       <c r="H427">
         <v>1001.58333333333</v>
       </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I427" s="2">
+        <v>181.33475999999999</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>39630</v>
       </c>
@@ -11552,8 +12837,11 @@
       <c r="H428">
         <v>1001.58333333333</v>
       </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I428" s="2">
+        <v>167.11453</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>39661</v>
       </c>
@@ -11578,8 +12866,11 @@
       <c r="H429">
         <v>1009.58333333333</v>
       </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I429" s="2">
+        <v>148.60476</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>39692</v>
       </c>
@@ -11604,8 +12895,11 @@
       <c r="H430">
         <v>1005.58333333333</v>
       </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I430" s="2">
+        <v>108.93485</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>39722</v>
       </c>
@@ -11630,8 +12924,11 @@
       <c r="H431">
         <v>1013.58333333333</v>
       </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I431" s="2">
+        <v>8.7395455000000002</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>39753</v>
       </c>
@@ -11656,8 +12953,11 @@
       <c r="H432">
         <v>1022.58333333333</v>
       </c>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I432" s="2">
+        <v>-68.501741999999993</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>39783</v>
       </c>
@@ -11682,8 +12982,11 @@
       <c r="H433">
         <v>1027.5833333333301</v>
       </c>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I433" s="2">
+        <v>-77.252235999999996</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>39814</v>
       </c>
@@ -11708,8 +13011,11 @@
       <c r="H434">
         <v>1022.08333333333</v>
       </c>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I434" s="2">
+        <v>-57.619554999999998</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>39845</v>
       </c>
@@ -11734,8 +13040,11 @@
       <c r="H435">
         <v>1030.0833333333301</v>
       </c>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I435" s="2">
+        <v>11.824051000000001</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>39873</v>
       </c>
@@ -11760,8 +13069,11 @@
       <c r="H436">
         <v>1047.0833333333301</v>
       </c>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I436" s="2">
+        <v>19.613102999999999</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>39904</v>
       </c>
@@ -11786,8 +13098,11 @@
       <c r="H437">
         <v>1057.0833333333301</v>
       </c>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I437" s="2">
+        <v>3.1031414000000002</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>39934</v>
       </c>
@@ -11812,8 +13127,11 @@
       <c r="H438">
         <v>1048.0833333333301</v>
       </c>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I438" s="2">
+        <v>45.712555999999999</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>39965</v>
       </c>
@@ -11838,8 +13156,11 @@
       <c r="H439">
         <v>1038.0833333333301</v>
       </c>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I439" s="2">
+        <v>85.934706000000006</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>39995</v>
       </c>
@@ -11864,8 +13185,11 @@
       <c r="H440">
         <v>1037.0833333333301</v>
       </c>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I440" s="2">
+        <v>73.276114000000007</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>40026</v>
       </c>
@@ -11890,8 +13214,11 @@
       <c r="H441">
         <v>1027.0833333333301</v>
       </c>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I441" s="2">
+        <v>50.617846</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>40057</v>
       </c>
@@ -11916,8 +13243,11 @@
       <c r="H442">
         <v>1027.0833333333301</v>
       </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I442" s="2">
+        <v>37.302497000000002</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>40087</v>
       </c>
@@ -11942,8 +13272,11 @@
       <c r="H443">
         <v>1025.0833333333301</v>
       </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I443" s="2">
+        <v>52.694755999999998</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>40118</v>
       </c>
@@ -11968,8 +13301,11 @@
       <c r="H444">
         <v>1030.0833333333301</v>
       </c>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I444" s="2">
+        <v>88.650924000000003</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>40148</v>
       </c>
@@ -11994,8 +13330,11 @@
       <c r="H445">
         <v>1019.08333333333</v>
       </c>
-    </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I445" s="2">
+        <v>78.929586</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>40179</v>
       </c>
@@ -12020,8 +13359,11 @@
       <c r="H446">
         <v>1020.16666666667</v>
       </c>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I446" s="2">
+        <v>67.023763000000002</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>40210</v>
       </c>
@@ -12046,8 +13388,11 @@
       <c r="H447">
         <v>1027.1666666666699</v>
       </c>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I447" s="2">
+        <v>50.477513000000002</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>40238</v>
       </c>
@@ -12072,8 +13417,11 @@
       <c r="H448">
         <v>1043.1666666666699</v>
       </c>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I448" s="2">
+        <v>68.632497999999998</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>40269</v>
       </c>
@@ -12098,8 +13446,11 @@
       <c r="H449">
         <v>1047.1666666666699</v>
       </c>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I449" s="2">
+        <v>63.521839999999997</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>40299</v>
       </c>
@@ -12124,8 +13475,11 @@
       <c r="H450">
         <v>1046.1666666666699</v>
       </c>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I450" s="2">
+        <v>86.946132000000006</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>40330</v>
       </c>
@@ -12150,8 +13504,11 @@
       <c r="H451">
         <v>1049.1666666666699</v>
       </c>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I451" s="2">
+        <v>65.406792999999993</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>40360</v>
       </c>
@@ -12176,8 +13533,11 @@
       <c r="H452">
         <v>1041.1666666666699</v>
       </c>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I452" s="2">
+        <v>17.339552000000001</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>40391</v>
       </c>
@@ -12202,8 +13562,11 @@
       <c r="H453">
         <v>1043.1666666666699</v>
       </c>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I453" s="2">
+        <v>41.516143</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>40422</v>
       </c>
@@ -12228,8 +13591,11 @@
       <c r="H454">
         <v>1046.1666666666699</v>
       </c>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I454" s="2">
+        <v>52.671317999999999</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>40452</v>
       </c>
@@ -12254,8 +13620,11 @@
       <c r="H455">
         <v>1051.1666666666699</v>
       </c>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I455" s="2">
+        <v>51.524451999999997</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>40483</v>
       </c>
@@ -12280,8 +13649,11 @@
       <c r="H456">
         <v>1036.1666666666699</v>
       </c>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I456" s="2">
+        <v>36.567168000000002</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>40513</v>
       </c>
@@ -12306,8 +13678,11 @@
       <c r="H457">
         <v>1017.16666666667</v>
       </c>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I457" s="2">
+        <v>22.980879000000002</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>40544</v>
       </c>
@@ -12332,8 +13707,11 @@
       <c r="H458">
         <v>1015.08333333333</v>
       </c>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I458" s="2">
+        <v>-14.315553</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>40575</v>
       </c>
@@ -12358,8 +13736,11 @@
       <c r="H459">
         <v>1018.08333333333</v>
       </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I459" s="2">
+        <v>-31.557409</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>40603</v>
       </c>
@@ -12384,8 +13765,11 @@
       <c r="H460">
         <v>1030.0833333333301</v>
       </c>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I460" s="2">
+        <v>-8.4692828000000002</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>40634</v>
       </c>
@@ -12410,8 +13794,11 @@
       <c r="H461">
         <v>1036.0833333333301</v>
       </c>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I461" s="2">
+        <v>-19.364205999999999</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>40664</v>
       </c>
@@ -12436,8 +13823,11 @@
       <c r="H462">
         <v>1038.0833333333301</v>
       </c>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I462" s="2">
+        <v>-18.822835999999999</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>40695</v>
       </c>
@@ -12462,8 +13852,11 @@
       <c r="H463">
         <v>1025.0833333333301</v>
       </c>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I463" s="2">
+        <v>-12.856301999999999</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>40725</v>
       </c>
@@ -12488,8 +13881,11 @@
       <c r="H464">
         <v>1008.08333333333</v>
       </c>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I464" s="2">
+        <v>-17.795947000000002</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>40756</v>
       </c>
@@ -12514,8 +13910,11 @@
       <c r="H465">
         <v>986.08333333333303</v>
       </c>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I465" s="2">
+        <v>-16.39217</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>40787</v>
       </c>
@@ -12540,8 +13939,11 @@
       <c r="H466">
         <v>969.08333333333303</v>
       </c>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I466" s="2">
+        <v>11.840588</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>40817</v>
       </c>
@@ -12566,8 +13968,11 @@
       <c r="H467">
         <v>976.08333333333303</v>
       </c>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I467" s="2">
+        <v>23.810396999999998</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>40848</v>
       </c>
@@ -12592,8 +13997,11 @@
       <c r="H468">
         <v>976.08333333333303</v>
       </c>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I468" s="2">
+        <v>11.634620999999999</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>40878</v>
       </c>
@@ -12618,8 +14026,11 @@
       <c r="H469">
         <v>970.08333333333303</v>
       </c>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I469" s="2">
+        <v>13.581238000000001</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>40909</v>
       </c>
@@ -12644,8 +14055,11 @@
       <c r="H470">
         <v>1005.58333333333</v>
       </c>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I470" s="2">
+        <v>-45.197454</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>40940</v>
       </c>
@@ -12670,8 +14084,11 @@
       <c r="H471">
         <v>1010.58333333333</v>
       </c>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I471" s="2">
+        <v>-84.405994000000007</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>40969</v>
       </c>
@@ -12696,8 +14113,11 @@
       <c r="H472">
         <v>1035.5833333333301</v>
       </c>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I472" s="2">
+        <v>-64.363457999999994</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>41000</v>
       </c>
@@ -12722,8 +14142,11 @@
       <c r="H473">
         <v>1045.5833333333301</v>
       </c>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I473" s="2">
+        <v>-47.132074000000003</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>41030</v>
       </c>
@@ -12748,8 +14171,11 @@
       <c r="H474">
         <v>1050.5833333333301</v>
       </c>
-    </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I474" s="2">
+        <v>-39.148688</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>41061</v>
       </c>
@@ -12774,8 +14200,11 @@
       <c r="H475">
         <v>1050.5833333333301</v>
       </c>
-    </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I475" s="2">
+        <v>-55.013396</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>41091</v>
       </c>
@@ -12800,8 +14229,11 @@
       <c r="H476">
         <v>1035.5833333333301</v>
       </c>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I476" s="2">
+        <v>-42.926597000000001</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>41122</v>
       </c>
@@ -12826,8 +14258,11 @@
       <c r="H477">
         <v>1024.5833333333301</v>
       </c>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I477" s="2">
+        <v>-76.172259999999994</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>41153</v>
       </c>
@@ -12852,8 +14287,11 @@
       <c r="H478">
         <v>1031.5833333333301</v>
       </c>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I478" s="2">
+        <v>-83.816006000000002</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>41183</v>
       </c>
@@ -12878,8 +14316,11 @@
       <c r="H479">
         <v>1037.5833333333301</v>
       </c>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I479" s="2">
+        <v>-54.131748000000002</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>41214</v>
       </c>
@@ -12904,8 +14345,11 @@
       <c r="H480">
         <v>1040.5833333333301</v>
       </c>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I480" s="2">
+        <v>-46.494981000000003</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>41244</v>
       </c>
@@ -12930,8 +14374,11 @@
       <c r="H481">
         <v>1027.5833333333301</v>
       </c>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I481" s="2">
+        <v>-64.340104999999994</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>41275</v>
       </c>
@@ -12956,8 +14403,11 @@
       <c r="H482">
         <v>1021.66666666667</v>
       </c>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I482" s="2">
+        <v>-74.851200000000006</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>41306</v>
       </c>
@@ -12982,8 +14432,11 @@
       <c r="H483">
         <v>1029.6666666666699</v>
       </c>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I483" s="2">
+        <v>-78.615228000000002</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>41334</v>
       </c>
@@ -13008,8 +14461,11 @@
       <c r="H484">
         <v>1037.6666666666699</v>
       </c>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I484" s="2">
+        <v>-61.955778000000002</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>41365</v>
       </c>
@@ -13034,8 +14490,11 @@
       <c r="H485">
         <v>1040.6666666666699</v>
       </c>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I485" s="2">
+        <v>-61.825198999999998</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>41395</v>
       </c>
@@ -13060,8 +14519,11 @@
       <c r="H486">
         <v>1036.6666666666699</v>
       </c>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I486" s="2">
+        <v>-64.327126000000007</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>41426</v>
       </c>
@@ -13086,8 +14548,11 @@
       <c r="H487">
         <v>1021.66666666667</v>
       </c>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I487" s="2">
+        <v>-54.448138999999998</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>41456</v>
       </c>
@@ -13112,8 +14577,11 @@
       <c r="H488">
         <v>1012.66666666667</v>
       </c>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I488" s="2">
+        <v>-36.735799</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>41487</v>
       </c>
@@ -13138,8 +14606,11 @@
       <c r="H489">
         <v>1010.66666666667</v>
       </c>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I489" s="2">
+        <v>-39.981808000000001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>41518</v>
       </c>
@@ -13164,8 +14635,11 @@
       <c r="H490">
         <v>1017.66666666667</v>
       </c>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I490" s="2">
+        <v>3.6097388000000001</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>41548</v>
       </c>
@@ -13190,8 +14664,11 @@
       <c r="H491">
         <v>1026.6666666666699</v>
       </c>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I491" s="2">
+        <v>15.103085999999999</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>41579</v>
       </c>
@@ -13216,8 +14693,11 @@
       <c r="H492">
         <v>1018.66666666667</v>
       </c>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I492" s="2">
+        <v>-3.8202096999999999</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>41609</v>
       </c>
@@ -13242,8 +14722,11 @@
       <c r="H493">
         <v>1001.66666666667</v>
       </c>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I493" s="2">
+        <v>29.525379000000001</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>41640</v>
       </c>
@@ -13268,8 +14751,11 @@
       <c r="H494">
         <v>1032</v>
       </c>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I494" s="2">
+        <v>-9.7336820999999993</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>41671</v>
       </c>
@@ -13294,8 +14780,11 @@
       <c r="H495">
         <v>1041</v>
       </c>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I495" s="2">
+        <v>-35.246786</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>41699</v>
       </c>
@@ -13320,8 +14809,11 @@
       <c r="H496">
         <v>1051</v>
       </c>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I496" s="2">
+        <v>-8.8752660999999993</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>41730</v>
       </c>
@@ -13346,8 +14838,11 @@
       <c r="H497">
         <v>1059</v>
       </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I497" s="2">
+        <v>-43.976922000000002</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>41760</v>
       </c>
@@ -13372,8 +14867,11 @@
       <c r="H498">
         <v>1056</v>
       </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I498" s="2">
+        <v>-49.27993</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>41791</v>
       </c>
@@ -13398,8 +14896,11 @@
       <c r="H499">
         <v>1045</v>
       </c>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I499" s="2">
+        <v>-57.653664999999997</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>41821</v>
       </c>
@@ -13424,8 +14925,11 @@
       <c r="H500">
         <v>1030</v>
       </c>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I500" s="2">
+        <v>-71.228967999999995</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>41852</v>
       </c>
@@ -13450,8 +14954,11 @@
       <c r="H501">
         <v>1022</v>
       </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I501" s="2">
+        <v>-54.674329999999998</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>41883</v>
       </c>
@@ -13476,8 +14983,11 @@
       <c r="H502">
         <v>1023</v>
       </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I502" s="2">
+        <v>-36.445649000000003</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>41913</v>
       </c>
@@ -13502,8 +15012,11 @@
       <c r="H503">
         <v>1043</v>
       </c>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I503" s="2">
+        <v>-38.240136999999997</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>41944</v>
       </c>
@@ -13528,8 +15041,11 @@
       <c r="H504">
         <v>1048</v>
       </c>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I504" s="2">
+        <v>-18.846397</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>41974</v>
       </c>
@@ -13554,8 +15070,11 @@
       <c r="H505">
         <v>1052</v>
       </c>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I505" s="2">
+        <v>-56.511865999999998</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>42005</v>
       </c>
@@ -13580,8 +15099,11 @@
       <c r="H506">
         <v>1080</v>
       </c>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I506" s="2">
+        <v>-78.399816000000001</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>42036</v>
       </c>
@@ -13606,8 +15128,11 @@
       <c r="H507">
         <v>1106</v>
       </c>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I507" s="2">
+        <v>-108.0223</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>42064</v>
       </c>
@@ -13632,8 +15157,11 @@
       <c r="H508">
         <v>1134</v>
       </c>
-    </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I508" s="2">
+        <v>-101.59307</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>42095</v>
       </c>
@@ -13658,8 +15186,11 @@
       <c r="H509">
         <v>1144</v>
       </c>
-    </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I509" s="2">
+        <v>-98.882130000000004</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>42125</v>
       </c>
@@ -13684,8 +15215,11 @@
       <c r="H510">
         <v>1141</v>
       </c>
-    </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I510" s="2">
+        <v>-98.102362999999997</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>42156</v>
       </c>
@@ -13710,8 +15244,11 @@
       <c r="H511">
         <v>1133</v>
       </c>
-    </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I511" s="2">
+        <v>-82.441624000000004</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>42186</v>
       </c>
@@ -13736,8 +15273,11 @@
       <c r="H512">
         <v>1120</v>
       </c>
-    </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I512" s="2">
+        <v>-49.129928999999997</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>42217</v>
       </c>
@@ -13762,8 +15302,11 @@
       <c r="H513">
         <v>1121</v>
       </c>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I513" s="2">
+        <v>-40.121476000000001</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>42248</v>
       </c>
@@ -13788,8 +15331,11 @@
       <c r="H514">
         <v>1124</v>
       </c>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I514" s="2">
+        <v>-57.891060000000003</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>42278</v>
       </c>
@@ -13814,8 +15360,11 @@
       <c r="H515">
         <v>1150</v>
       </c>
-    </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I515" s="2">
+        <v>-69.246106999999995</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>42309</v>
       </c>
@@ -13840,8 +15389,11 @@
       <c r="H516">
         <v>1151</v>
       </c>
-    </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I516" s="2">
+        <v>-100.10839</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>42339</v>
       </c>
@@ -13866,8 +15418,11 @@
       <c r="H517">
         <v>1144</v>
       </c>
-    </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I517" s="2">
+        <v>-111.30933</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>42370</v>
       </c>
@@ -13892,8 +15447,11 @@
       <c r="H518">
         <v>1167</v>
       </c>
-    </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I518" s="2">
+        <v>-140.77735999999999</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>42401</v>
       </c>
@@ -13918,8 +15476,11 @@
       <c r="H519">
         <v>1187</v>
       </c>
-    </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I519" s="2">
+        <v>-163.43086</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>42430</v>
       </c>
@@ -13944,8 +15505,11 @@
       <c r="H520">
         <v>1200</v>
       </c>
-    </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I520" s="2">
+        <v>-141.23864</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>42461</v>
       </c>
@@ -13970,8 +15534,11 @@
       <c r="H521">
         <v>1204</v>
       </c>
-    </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I521" s="2">
+        <v>-95.380623</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>42491</v>
       </c>
@@ -13996,8 +15563,11 @@
       <c r="H522">
         <v>1207</v>
       </c>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I522" s="2">
+        <v>-93.443780000000004</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>42522</v>
       </c>
@@ -14022,8 +15592,11 @@
       <c r="H523">
         <v>1196</v>
       </c>
-    </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I523" s="2">
+        <v>-95.507842999999994</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>42552</v>
       </c>
@@ -14048,8 +15621,11 @@
       <c r="H524">
         <v>1189</v>
       </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I524" s="2">
+        <v>-80.171020999999996</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>42583</v>
       </c>
@@ -14074,8 +15650,11 @@
       <c r="H525">
         <v>1182</v>
       </c>
-    </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I525" s="2">
+        <v>-85.224753000000007</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>42614</v>
       </c>
@@ -14100,8 +15679,11 @@
       <c r="H526">
         <v>1167</v>
       </c>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I526" s="2">
+        <v>-64.536417</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>42644</v>
       </c>
@@ -14126,8 +15708,11 @@
       <c r="H527">
         <v>1186</v>
       </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I527" s="2">
+        <v>-59.844042000000002</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>42675</v>
       </c>
@@ -14152,8 +15737,11 @@
       <c r="H528">
         <v>1186</v>
       </c>
-    </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I528" s="2">
+        <v>-38.816501000000002</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>42705</v>
       </c>
@@ -14178,8 +15766,11 @@
       <c r="H529">
         <v>1180</v>
       </c>
-    </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I529" s="2">
+        <v>-41.046385999999998</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>42736</v>
       </c>
@@ -14204,8 +15795,11 @@
       <c r="H530">
         <v>1200</v>
       </c>
-    </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I530" s="2">
+        <v>-55.975639999999999</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>42767</v>
       </c>
@@ -14230,8 +15824,11 @@
       <c r="H531">
         <v>1218</v>
       </c>
-    </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I531" s="2">
+        <v>-73.614957000000004</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>42795</v>
       </c>
@@ -14256,8 +15853,11 @@
       <c r="H532">
         <v>1229</v>
       </c>
-    </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I532" s="2">
+        <v>-32.554687999999999</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>42826</v>
       </c>
@@ -14282,8 +15882,11 @@
       <c r="H533">
         <v>1213</v>
       </c>
-    </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I533" s="2">
+        <v>-25.734389</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>42856</v>
       </c>
@@ -14308,8 +15911,11 @@
       <c r="H534">
         <v>1201</v>
       </c>
-    </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I534" s="2">
+        <v>-48.258392999999998</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>42887</v>
       </c>
@@ -14334,8 +15940,11 @@
       <c r="H535">
         <v>1180</v>
       </c>
-    </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I535" s="2">
+        <v>-60.479866999999999</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>42917</v>
       </c>
@@ -14360,8 +15969,11 @@
       <c r="H536">
         <v>1161</v>
       </c>
-    </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I536" s="2">
+        <v>-55.212355000000002</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>42948</v>
       </c>
@@ -14386,8 +15998,11 @@
       <c r="H537">
         <v>1138</v>
       </c>
-    </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I537" s="2">
+        <v>-32.345461999999998</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>42979</v>
       </c>
@@ -14412,8 +16027,11 @@
       <c r="H538">
         <v>1143</v>
       </c>
-    </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I538" s="2">
+        <v>-14.894557000000001</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>43009</v>
       </c>
@@ -14438,8 +16056,11 @@
       <c r="H539">
         <v>1128</v>
       </c>
-    </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I539" s="2">
+        <v>-6.3283066999999997</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>43040</v>
       </c>
@@ -14464,8 +16085,11 @@
       <c r="H540">
         <v>1114</v>
       </c>
-    </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I540" s="2">
+        <v>-8.5689540999999991</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>43070</v>
       </c>
@@ -14490,8 +16114,11 @@
       <c r="H541">
         <v>1084</v>
       </c>
-    </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I541" s="2">
+        <v>2.1302137999999999</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>43101</v>
       </c>
@@ -14516,8 +16143,11 @@
       <c r="H542">
         <v>1084</v>
       </c>
-    </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I542" s="2">
+        <v>-24.734559999999998</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>43132</v>
       </c>
@@ -14542,8 +16172,11 @@
       <c r="H543">
         <v>1089</v>
       </c>
-    </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I543" s="2">
+        <v>-34.652507999999997</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>43160</v>
       </c>
@@ -14568,8 +16201,11 @@
       <c r="H544">
         <v>1089</v>
       </c>
-    </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I544" s="2">
+        <v>-31.847367999999999</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>43191</v>
       </c>
@@ -14594,8 +16230,11 @@
       <c r="H545">
         <v>1099</v>
       </c>
-    </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I545" s="2">
+        <v>-34.096640000000001</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>43221</v>
       </c>
@@ -14620,8 +16259,11 @@
       <c r="H546">
         <v>1097</v>
       </c>
-    </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I546" s="2">
+        <v>-20.580380999999999</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>43252</v>
       </c>
@@ -14646,6 +16288,27 @@
       <c r="H547">
         <v>1098.5808823529401</v>
       </c>
+      <c r="I547" s="2">
+        <v>-16.085287000000001</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I548" s="2"/>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I549" s="2"/>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I550" s="2"/>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I551" s="2"/>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I552" s="2"/>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I553" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
